--- a/t1/data.xlsx
+++ b/t1/data.xlsx
@@ -5,12 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Housing_prices" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Housing_space" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ZhKH" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Busyness" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Expenses" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Goods_prices" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,16 +24,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -60,6 +72,28 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial CYR"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial CYR"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -105,7 +139,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -123,6 +157,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,11 +211,11 @@
   </sheetPr>
   <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85:A91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A1:A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -593,7 +659,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -606,17 +672,478 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A85:A91 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="A1:A108 E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -629,17 +1156,2157 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A85:A91 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="n">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="n">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="n">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="n">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="n">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="n">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="n">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="n">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A102"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="n">
+        <v>67462.9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
+        <v>18601.4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>582.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>703.4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>1055.2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>490.8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>480.9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>317.2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>580.8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <v>545.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <v>2879.8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <v>396.6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>496.9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>494.6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>500.6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>596.4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <v>762.9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <v>656.2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <v>6368.1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
+        <v>6764.9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <v>338.1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>467.7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <v>609.1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <v>595.3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <v>738.9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
+        <v>438.9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="n">
+        <v>314.4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="n">
+        <v>324.5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="n">
+        <v>2453.1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
+        <v>6139.2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
+        <v>152.8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="n">
+        <v>2270.3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="n">
+        <v>446.3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="n">
+        <v>1254.2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
+        <v>1901.5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="n">
+        <v>3251.9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="n">
+        <v>65.6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="n">
+        <v>310.1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="n">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="n">
+        <v>298.1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="n">
+        <v>256.2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="n">
+        <v>1209.8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="n">
+        <v>14402.5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="n">
+        <v>1782.4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="n">
+        <v>322.3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="n">
+        <v>387.1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="n">
+        <v>1800.5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="n">
+        <v>759.6</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="n">
+        <v>577.1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="n">
+        <v>1316.2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="n">
+        <v>1722.2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="n">
+        <v>1068.7</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="n">
+        <v>667.7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="n">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="n">
+        <v>1204.7</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="n">
+        <v>6043.9</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="n">
+        <v>410.3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="n">
+        <v>2060.4</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="n">
+        <v>1929.7</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="n">
+        <v>897.4</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="n">
+        <v>368.5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="n">
+        <v>1643.5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11" t="n">
+        <v>8954.8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="n">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="n">
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="n">
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="n">
+        <v>243.7</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="n">
+        <v>1071.4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="7" t="n">
+        <v>490.9</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="7" t="n">
+        <v>1433.9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="n">
+        <v>1142.9</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7" t="n">
+        <v>1280.1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="7" t="n">
+        <v>1255.9</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7" t="n">
+        <v>942.8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="11" t="n">
+        <v>3304.4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="n">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="n">
+        <v>185.2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="n">
+        <v>977.8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="n">
+        <v>719.8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="7" t="n">
+        <v>441.1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="n">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="n">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="n">
+        <v>36.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A92:A93"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A104"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="n">
+        <v>11876</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
+        <v>15491</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>9162</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>8819</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>9348</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>6479</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>8422</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <v>9641</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <v>14403</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <v>7194</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <v>8351</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <v>29489</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
+        <v>12275</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>13088</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <v>10555</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>13295</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
+        <v>10524</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
+        <v>13735</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="n">
+        <v>9627</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="n">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="n">
+        <v>16731</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
+        <v>10434</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
+        <v>7247</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="n">
+        <v>12129</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="n">
+        <v>9082</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="n">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
+        <v>10135</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="n">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="n">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="n">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="n">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="n">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="n">
+        <v>7181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="n">
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="n">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="n">
+        <v>12771</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="n">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="n">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="n">
+        <v>12116</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="n">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="n">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="n">
+        <v>12024</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="n">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="n">
+        <v>10147</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="n">
+        <v>7631</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="n">
+        <v>8108</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="n">
+        <v>13537</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="n">
+        <v>7072</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="n">
+        <v>7456</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="n">
+        <v>13366</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="n">
+        <v>7899</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="n">
+        <v>14022</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="n">
+        <v>17012</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="n">
+        <v>18885</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12" t="n">
+        <v>19854</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="n">
+        <v>10475</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>8603</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="n">
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="n">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="n">
+        <v>10703</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="n">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="n">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>11319</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="n">
+        <v>9259</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>9109</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="n">
+        <v>13175</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="n">
+        <v>11896</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="n">
+        <v>10382</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="n">
+        <v>12413</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="n">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="n">
+        <v>12387</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="n">
+        <v>19138</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="n">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="n">
+        <v>13140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A94:A95"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A108"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="n">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A106:A107"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
